--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272029.736263794</v>
+        <v>275722.4260854734</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091065</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6494957.899532111</v>
+        <v>6494957.899532109</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>65.8561223778394</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.33950879908049</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464081</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>12.68843489334725</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>90.6928079498296</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>80.18638727249719</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -959,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>230.3244372376876</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>101.6816128081183</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>252.9673053664771</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>226.529571869212</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464081</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.7165542762729</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>392.5647472501403</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1379,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>6.628923455408724</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>129.0638484442158</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>285.3365116495305</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.338580986754437</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1749,7 +1751,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424958</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>393.9470907639073</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>41.7773667277431</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2020,7 +2022,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.81029504147006</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>94.852218345675</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.497613144310512</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>215.7942570968684</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.5057622288448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>393.9470907639073</v>
+        <v>228.4798250856499</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>114.0911530820968</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2485,7 +2487,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>36.57290338827823</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>143.2395306959555</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>36.22155466556678</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>12.69271655599485</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2797,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>392.5647472501406</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>41.87298981572562</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>115.6215446134499</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3007,10 +3009,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,16 +3034,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>28.11724303810149</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>392.4208820523424</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.0500968366749</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.338580986754886</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>383.5604440308334</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3512,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>101.0222869717625</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>357.5664370743021</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.4736732291613</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>8.229263056157485</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>23.34318945196206</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3907,7 +3909,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>132.354229375469</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0568288090867</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>106.3308224384606</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>197.3171546936815</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672388</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.908632525021</v>
+        <v>1363.735780952511</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.784041838291</v>
+        <v>953.6111902657808</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.784041838291</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="W2" t="n">
-        <v>1730.766722221062</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="X2" t="n">
-        <v>1730.766722221062</v>
+        <v>1764.672454004421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.908632525021</v>
+        <v>1363.735780952511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4440,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="4">
@@ -4477,19 +4479,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4516,19 +4518,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="Y4" t="n">
         <v>1318.798642324783</v>
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.7954976759145</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C5" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D5" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
         <v>1767.09327468481</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1996.645384561082</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1996.645384561082</v>
       </c>
       <c r="U5" t="n">
-        <v>2007.257930699802</v>
+        <v>1996.645384561082</v>
       </c>
       <c r="V5" t="n">
-        <v>1657.420376036283</v>
+        <v>1646.807829897563</v>
       </c>
       <c r="W5" t="n">
-        <v>1273.660075171451</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="X5" t="n">
-        <v>873.0166773404039</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.0166773404039</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4677,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.8584580678856</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4756,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>827.2998100777289</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>827.2998100777289</v>
       </c>
       <c r="W7" t="n">
-        <v>400.5581644619299</v>
+        <v>827.2998100777289</v>
       </c>
       <c r="X7" t="n">
-        <v>400.5581644619299</v>
+        <v>827.2998100777289</v>
       </c>
       <c r="Y7" t="n">
-        <v>400.5581644619299</v>
+        <v>827.2998100777289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>451.8896763163319</v>
+        <v>946.9697231064266</v>
       </c>
       <c r="C8" t="n">
-        <v>41.76508562960205</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4829,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1637.230048064121</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1637.230048064121</v>
+        <v>1603.135651610683</v>
       </c>
       <c r="W8" t="n">
-        <v>1253.469747199289</v>
+        <v>1603.135651610683</v>
       </c>
       <c r="X8" t="n">
-        <v>852.8263493682418</v>
+        <v>1202.492253779636</v>
       </c>
       <c r="Y8" t="n">
-        <v>451.8896763163319</v>
+        <v>1202.492253779636</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P9" t="n">
         <v>2088.254281480102</v>
@@ -4914,19 +4916,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V10" t="n">
-        <v>1299.499495805762</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W10" t="n">
-        <v>1299.499495805762</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X10" t="n">
-        <v>1299.499495805762</v>
+        <v>454.2004906348817</v>
       </c>
       <c r="Y10" t="n">
-        <v>1299.499495805762</v>
+        <v>229.4647920236464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1277.389703984565</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C11" t="n">
-        <v>867.2651132978355</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D11" t="n">
-        <v>462.801183390896</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E11" t="n">
-        <v>48.46096790779268</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
         <v>2088.254281480102</v>
@@ -5081,10 +5083,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>497.5713418949007</v>
+        <v>675.164428100838</v>
       </c>
       <c r="M12" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1014.752890035065</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>843.6595175967814</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>684.1648729196913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>523.2540577880108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5236,13 +5238,13 @@
         <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.796458569426</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.452596429109</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.452596429109</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>451.8896763163319</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960205</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L14" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M14" t="n">
-        <v>1726.536628995245</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N14" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O14" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
         <v>1726.536628995245</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>740.1083749522213</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y14" t="n">
-        <v>740.1083749522213</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O15" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5388,13 +5390,13 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="C17" t="n">
-        <v>1690.327927173125</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F17" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>2046.054921149048</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1662.294620284217</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1261.651222453169</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>860.7145494012593</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5625,19 +5627,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.2582453579748</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C19" t="n">
-        <v>684.1648729196913</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D19" t="n">
-        <v>684.1648729196913</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E19" t="n">
-        <v>523.2540577880108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F19" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1520.850552915634</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1281.301813892336</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U19" t="n">
-        <v>1281.301813892336</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V19" t="n">
-        <v>1281.301813892336</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W19" t="n">
-        <v>1281.301813892336</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X19" t="n">
-        <v>1042.957951752019</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="Y19" t="n">
-        <v>1042.957951752019</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2088.254281480102</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C20" t="n">
-        <v>1690.327927173125</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>2084.721338910091</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1684.077941079044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>1283.141268027134</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960218</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960218</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811266</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147452</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N21" t="n">
         <v>1571.411346813777</v>
@@ -5865,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5935,25 +5937,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T22" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U22" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V22" t="n">
-        <v>929.2073714114977</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W22" t="n">
-        <v>650.137706920372</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X22" t="n">
-        <v>411.7938447800554</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y22" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>767.6328345264138</v>
+      </c>
+      <c r="C23" t="n">
+        <v>536.8451324196967</v>
+      </c>
+      <c r="D23" t="n">
+        <v>536.8451324196967</v>
+      </c>
+      <c r="E23" t="n">
+        <v>536.8451324196967</v>
+      </c>
+      <c r="F23" t="n">
+        <v>536.8451324196967</v>
+      </c>
+      <c r="G23" t="n">
+        <v>128.1168483125289</v>
+      </c>
+      <c r="H23" t="n">
+        <v>128.1168483125289</v>
+      </c>
+      <c r="I23" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="J23" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="K23" t="n">
+        <v>558.6080202959272</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1250.250340018485</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1767.09327468481</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2088.254281480102</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1690.327927173125</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1285.863997266186</v>
-      </c>
-      <c r="E23" t="n">
-        <v>871.5237817830823</v>
-      </c>
-      <c r="F23" t="n">
-        <v>450.4933697367699</v>
-      </c>
-      <c r="G23" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="H23" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="I23" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="J23" t="n">
-        <v>295.9505570973564</v>
-      </c>
-      <c r="K23" t="n">
-        <v>295.9505570973564</v>
-      </c>
-      <c r="L23" t="n">
-        <v>295.9505570973564</v>
-      </c>
-      <c r="M23" t="n">
-        <v>812.7934917636817</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1329.636426430007</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1530.854701124212</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2047.697635790537</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1569.212905409371</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>767.6328345264138</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6062,19 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7254774811262</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M24" t="n">
         <v>1054.568412147451</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1367.212063375306</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C25" t="n">
-        <v>1196.118690937022</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D25" t="n">
-        <v>1036.624046259932</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E25" t="n">
-        <v>875.7132311282519</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F25" t="n">
-        <v>875.7132311282519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G25" t="n">
-        <v>708.4628400537953</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H25" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.589795035412</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T25" t="n">
-        <v>1779.647468380585</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U25" t="n">
-        <v>1779.647468380585</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V25" t="n">
-        <v>1779.647468380585</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W25" t="n">
-        <v>1779.647468380585</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X25" t="n">
-        <v>1779.647468380585</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="Y25" t="n">
-        <v>1554.91176976935</v>
+        <v>1246.342524902554</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1430.550391908565</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="C26" t="n">
-        <v>1430.550391908565</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D26" t="n">
-        <v>1430.550391908565</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E26" t="n">
-        <v>1016.210176425462</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F26" t="n">
-        <v>595.1797643791492</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>186.4514802719814</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L26" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M26" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N26" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O26" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6254,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>2051.666852524984</v>
       </c>
       <c r="U26" t="n">
-        <v>1831.193789739612</v>
+        <v>2051.666852524984</v>
       </c>
       <c r="V26" t="n">
-        <v>1831.193789739612</v>
+        <v>2051.666852524984</v>
       </c>
       <c r="W26" t="n">
-        <v>1831.193789739612</v>
+        <v>1667.906551660152</v>
       </c>
       <c r="X26" t="n">
-        <v>1430.550391908565</v>
+        <v>1267.263153829105</v>
       </c>
       <c r="Y26" t="n">
-        <v>1430.550391908565</v>
+        <v>866.3264807771948</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J27" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L27" t="n">
-        <v>751.4208778585605</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M27" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N27" t="n">
-        <v>1054.568412147452</v>
+        <v>704.723947463468</v>
       </c>
       <c r="O27" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.5372301510217</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C28" t="n">
-        <v>371.4438577127382</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D28" t="n">
-        <v>358.622931898602</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E28" t="n">
-        <v>358.622931898602</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F28" t="n">
-        <v>358.622931898602</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G28" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W28" t="n">
-        <v>780.8810922913383</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="X28" t="n">
-        <v>542.5372301510217</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.5372301510217</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>860.6179604234998</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C29" t="n">
-        <v>450.4933697367699</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D29" t="n">
-        <v>450.4933697367699</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E29" t="n">
-        <v>450.4933697367699</v>
+        <v>859.3255454033292</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N29" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6497,16 +6499,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>2045.958332171288</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.198031306457</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.55463347541</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>860.6179604234998</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>537.7254774811266</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N30" t="n">
-        <v>1054.568412147452</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>308.1619798276301</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C31" t="n">
-        <v>308.1619798276301</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D31" t="n">
-        <v>191.3725408241454</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E31" t="n">
-        <v>191.3725408241454</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>191.3725408241454</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6643,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U31" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V31" t="n">
-        <v>774.9313507128002</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W31" t="n">
-        <v>495.8616862216745</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X31" t="n">
-        <v>495.8616862216745</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y31" t="n">
-        <v>495.8616862216745</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1281.648372469812</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C32" t="n">
-        <v>871.5237817830823</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D32" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6725,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1924.571950680161</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="X32" t="n">
-        <v>1691.869552134302</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y32" t="n">
-        <v>1691.869552134302</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.414276561226</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.414276561226</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N33" t="n">
-        <v>1014.414276561226</v>
+        <v>704.723947463468</v>
       </c>
       <c r="O33" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1382.235734070171</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C34" t="n">
-        <v>1211.142361631888</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D34" t="n">
-        <v>1051.647716954798</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E34" t="n">
-        <v>890.7369018231173</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F34" t="n">
-        <v>726.1057759337085</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V34" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W34" t="n">
-        <v>1816.589795035412</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X34" t="n">
-        <v>1578.245932895095</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y34" t="n">
-        <v>1382.235734070171</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1270.693821706375</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C35" t="n">
-        <v>860.5692310196448</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D35" t="n">
-        <v>456.1053011127053</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M35" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N35" t="n">
-        <v>812.7934917636817</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O35" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6962,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2081.851674422774</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2081.851674422774</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U35" t="n">
-        <v>2081.851674422774</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>2081.851674422774</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W35" t="n">
-        <v>2081.851674422774</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X35" t="n">
-        <v>2081.851674422774</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y35" t="n">
-        <v>1680.915001370864</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
@@ -7020,22 +7022,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M36" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O36" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2060.624640165668</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>2060.624640165668</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>2060.624640165668</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>2060.624640165668</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.033101815613</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.908511128883</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D38" t="n">
-        <v>863.4445812219433</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>863.4445812219433</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P38" t="n">
         <v>2047.697635790537</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>1247.809086419499</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>847.1656885884514</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>446.2290155365415</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>675.1644281008383</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N39" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O39" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C40" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D40" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E40" t="n">
-        <v>342.3560491364295</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F40" t="n">
-        <v>342.3560491364295</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>503.2668642681101</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>503.2668642681101</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.096428763703</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C41" t="n">
-        <v>1277.096428763703</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D41" t="n">
-        <v>1277.096428763703</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E41" t="n">
-        <v>1268.784041838291</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F41" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
+        <v>812.7934917636815</v>
+      </c>
+      <c r="M41" t="n">
         <v>1209.69369432892</v>
       </c>
-      <c r="M41" t="n">
-        <v>1726.536628995245</v>
-      </c>
       <c r="N41" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O41" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
         <v>1726.536628995245</v>
@@ -7448,13 +7450,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="Y41" t="n">
-        <v>1687.317608428192</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>81.91922121582746</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L42" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M42" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.263917876656</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="C43" t="n">
-        <v>362.1705454383725</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="D43" t="n">
-        <v>202.6759007612826</v>
+        <v>336.3670415445845</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>175.456226412904</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7594,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1145.223475107064</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1145.223475107064</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>959.307486411017</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>720.9636242707004</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.9636242707004</v>
+        <v>495.8616862216745</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1580.206012499095</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="C44" t="n">
-        <v>1580.206012499095</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="D44" t="n">
-        <v>1175.742082592155</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="E44" t="n">
-        <v>761.4018671090519</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F44" t="n">
-        <v>761.4018671090519</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M44" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N44" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O44" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P44" t="n">
         <v>1726.536628995245</v>
@@ -7673,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1980.849410330142</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U44" t="n">
-        <v>1980.849410330142</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1980.849410330142</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="W44" t="n">
-        <v>1980.849410330142</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="X44" t="n">
-        <v>1580.206012499095</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.206012499095</v>
+        <v>1274.395973214227</v>
       </c>
     </row>
     <row r="45">
@@ -7701,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O45" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7761,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J46" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K46" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L46" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M46" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P46" t="n">
         <v>2022.726251677591</v>
@@ -7828,28 +7830,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S46" t="n">
-        <v>1816.589795035412</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T46" t="n">
-        <v>1577.041056012114</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U46" t="n">
-        <v>1294.242908558238</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.35716349776</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W46" t="n">
-        <v>741.2874990066346</v>
+        <v>1012.951985451324</v>
       </c>
       <c r="X46" t="n">
-        <v>558.8553848592519</v>
+        <v>774.6081233110078</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7985,16 +7987,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>269.8552598673811</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>423.9773649117762</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>68.45311154908636</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8079,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>269.477326166955</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>333.3534809699544</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8535,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177352</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8690,22 +8692,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>593.8823835359368</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>594.6194560602019</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8772,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>235.501479574422</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>266.9965351298663</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958421</v>
       </c>
       <c r="M14" t="n">
-        <v>494.1995199774884</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>528.6762761514423</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776215</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
@@ -9246,25 +9248,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>525.3716274158285</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,16 +9406,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>594.1598684051008</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9422,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0846165901667</v>
+        <v>362.3241544056885</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>296.4405581451824</v>
+        <v>269.7548110361188</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>557.0846165901664</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>490.0456851936601</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
@@ -9887,13 +9889,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>359.4030239885898</v>
+        <v>200.7852390175286</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>333.3534809699544</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>558.5343765177352</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936598</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10431,25 +10433,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>266.8093398682833</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>237.1384347635729</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>494.099071146226</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10668,25 +10670,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M36" t="n">
-        <v>72.04887768380563</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>296.9001458002832</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>235.5014795744224</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,13 +11062,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>496.3946935832877</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774881</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
@@ -11075,7 +11077,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>91.92897171537922</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>525.3716274158282</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013268</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>280.4830567390447</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.5877975223103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22756,7 +22758,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>209.7999067317757</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22793,7 +22795,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>43.23545650401054</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>174.3034995505878</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22847,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22951,16 +22953,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,13 +22998,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>49.64572874164944</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>174.5973550380961</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>153.1516625013675</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>27.96031495387294</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.106155053831</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13.55422061770423</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.1911844704406</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23321,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>147.2151194019985</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120.7824562183141</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>390.2983828659825</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.07625401595521</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>304.561812389141</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>134.7175553974188</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>141.1082051732384</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>130.4306513095296</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -24032,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>55.35263051300481</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.98257939627808</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24206,16 +24208,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>12.07625401595521</v>
+        <v>177.5435196942126</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -24266,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>71.73155624800719</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>200.5803482447867</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24430,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>164.5598817026037</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24494,22 +24496,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>183.762864547043</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.2069816743242</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>12.07625401595556</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24737,16 +24739,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>304.4661893011585</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>42.27815361686919</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24920,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>191.8671761745083</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24980,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>4.216081800394534</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.43824478844803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25169,7 +25171,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>127.5896834670853</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>13.07651982190356</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06664624006455</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,13 +25402,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>315.7978209540868</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25442,22 +25444,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>22.35626078188102</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>16.10421393455073</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>401.9675502721147</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>373.5841168694287</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>30.63058525504567</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25834,22 +25836,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>92.22213903712765</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25868,22 +25870,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>113.6535967741492</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>149.0220244232027</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788412</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561695.8272567912</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561695.8272567912</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561695.8272567914</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561695.8272567914</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561695.8272567914</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567914</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567911</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>561695.8272567914</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="C2" t="n">
         <v>133181.3099302736</v>
@@ -26335,22 +26337,22 @@
         <v>133181.3099302736</v>
       </c>
       <c r="J2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="K2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="L2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="M2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="N2" t="n">
         <v>133181.3099302736</v>
       </c>
       <c r="O2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="P2" t="n">
         <v>133181.3099302736</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="D4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="E4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="F4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="H4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="I4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="J4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="K4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="L4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="M4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="N4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="O4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="P4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26522,46 +26524,46 @@
         <v>-136547.7575094784</v>
       </c>
       <c r="C6" t="n">
-        <v>38407.75238363566</v>
+        <v>38407.75238363567</v>
       </c>
       <c r="D6" t="n">
-        <v>38407.75238363566</v>
+        <v>38407.75238363564</v>
       </c>
       <c r="E6" t="n">
-        <v>72035.35238363566</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="F6" t="n">
-        <v>72035.35238363566</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="G6" t="n">
-        <v>72035.35238363566</v>
+        <v>72035.35238363565</v>
       </c>
       <c r="H6" t="n">
         <v>72035.35238363565</v>
       </c>
       <c r="I6" t="n">
-        <v>72035.35238363566</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="J6" t="n">
-        <v>-64559.44842225927</v>
+        <v>-64559.4484222593</v>
       </c>
       <c r="K6" t="n">
-        <v>72035.35238363569</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="L6" t="n">
-        <v>72035.35238363569</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="M6" t="n">
-        <v>72035.35238363569</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="N6" t="n">
-        <v>72035.35238363566</v>
+        <v>72035.35238363568</v>
       </c>
       <c r="O6" t="n">
-        <v>72035.35238363569</v>
+        <v>72035.35238363565</v>
       </c>
       <c r="P6" t="n">
-        <v>72035.35238363566</v>
+        <v>72035.35238363568</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>367.8628411009272</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>244.2170912967373</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>179.386955763573</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="M14" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>471.1119924130247</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>500.9700927793177</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9700927793176</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>203.2507825193993</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.9700927793173</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,13 +36609,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>306.2096305948398</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967373</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>500.9700927793178</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37151,25 +37153,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>209.2450561298659</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>179.3869557635729</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>400.9092955204429</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37388,25 +37390,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M36" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>179.3869557635733</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.55973291537921</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275722.4260854734</v>
+        <v>269993.0302542468</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>65.8561223778394</v>
+        <v>168.9265270819771</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464081</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -800,7 +800,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810346</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.68843489334725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>90.6928079498296</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>174.5305812539695</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588044</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
@@ -1056,13 +1056,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1071,10 +1071,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.3244372376876</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>206.2273198392498</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.9673053664771</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>70.30852256954655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464081</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>42.43741174507631</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>263.610464228666</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.5647472501403</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>189.4051898603841</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>318.4141087343344</v>
       </c>
       <c r="X14" t="n">
-        <v>6.338580986754437</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1751,7 +1751,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424958</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1824,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>215.7942570968684</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>46.6140839491403</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>41.7773667277431</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1943,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55.69551283691921</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>94.852218345675</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>107.6743680639787</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.497613144310512</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>215.7942570968684</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>228.4798250856499</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>383.5604440308339</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.0911530820968</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.129193841209192</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>36.22155466556678</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>20.7081564061327</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2727,7 +2727,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>84.51424118108754</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>54.68688746169084</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>103.1710677728062</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>392.5647472501406</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>239.396126853723</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>28.11724303810149</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>65.48383042464037</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.3347298374829</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>383.5604440308334</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>29.84773746968854</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>184.581467368476</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>357.5664370743021</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>214.2226662890273</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>378.1938974852948</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>23.34318945196206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>43.7322706362913</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>132.354229375469</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>121.7491102463856</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4036,16 +4036,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>197.3171546936815</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>13.99263448916676</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672388</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.735780952511</v>
+        <v>1782.340350635842</v>
       </c>
       <c r="C2" t="n">
-        <v>953.6111902657808</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="D2" t="n">
-        <v>549.1472603588413</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E2" t="n">
-        <v>549.1472603588413</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>128.1168483125289</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4327,55 +4327,55 @@
         <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>216.5644706858343</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1764.672454004421</v>
+        <v>1782.340350635842</v>
       </c>
       <c r="W2" t="n">
-        <v>1764.672454004421</v>
+        <v>1782.340350635842</v>
       </c>
       <c r="X2" t="n">
-        <v>1764.672454004421</v>
+        <v>1782.340350635842</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.735780952511</v>
+        <v>1782.340350635842</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736455</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227551</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N3" t="n">
-        <v>2048.100145893876</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4442,10 +4442,10 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
         <v>1196.626901649</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1331.615243227154</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>1331.615243227154</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.615243227154</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X4" t="n">
-        <v>1331.615243227154</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>172.2451057567575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>451.8896763163319</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960203</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960203</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960203</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959272</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521595</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1996.645384561082</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1996.645384561082</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1996.645384561082</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1646.807829897563</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1263.047529032731</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="X5" t="n">
-        <v>1263.047529032731</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="Y5" t="n">
-        <v>862.1108559808214</v>
+        <v>1776.679689856052</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>690.384199457534</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O6" t="n">
-        <v>1207.227134123859</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1724.070068790184</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4679,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>639.6001036836846</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C7" t="n">
-        <v>639.6001036836846</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D7" t="n">
-        <v>639.6001036836846</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>827.2998100777289</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>827.2998100777289</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="W7" t="n">
-        <v>827.2998100777289</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="X7" t="n">
-        <v>827.2998100777289</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y7" t="n">
-        <v>827.2998100777289</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>946.9697231064266</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C8" t="n">
-        <v>536.8451324196967</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="D8" t="n">
-        <v>536.8451324196967</v>
+        <v>942.542491449291</v>
       </c>
       <c r="E8" t="n">
-        <v>536.8451324196967</v>
+        <v>942.542491449291</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>521.5120794029785</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>112.7837952958107</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>112.7837952958107</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811263</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147451</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1603.135651610683</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.135651610683</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>1202.492253779636</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y8" t="n">
-        <v>1202.492253779636</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4916,19 +4916,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1528.297909780678</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U10" t="n">
-        <v>1245.499762326802</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V10" t="n">
-        <v>971.614017266324</v>
+        <v>1033.22629961519</v>
       </c>
       <c r="W10" t="n">
-        <v>692.5443527751984</v>
+        <v>754.1566351240645</v>
       </c>
       <c r="X10" t="n">
-        <v>454.2004906348817</v>
+        <v>754.1566351240645</v>
       </c>
       <c r="Y10" t="n">
-        <v>229.4647920236464</v>
+        <v>529.4209365128291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.724233752687</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.599643065957</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>728.1635060160443</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>728.1635060160443</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>1592.293889628578</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L12" t="n">
-        <v>675.164428100838</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.007362767163</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5226,25 +5226,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1270.693821706375</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C14" t="n">
-        <v>860.5692310196448</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1053011127053</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>692.8507596625946</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M14" t="n">
-        <v>692.8507596625946</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N14" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O14" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="X14" t="n">
-        <v>2081.851674422774</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="Y14" t="n">
-        <v>1680.915001370864</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
@@ -5366,19 +5366,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1207.227134123859</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.227134123859</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5390,19 +5390,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5472,16 +5472,16 @@
         <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>498.0829448374625</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>259.7390826971459</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>450.4933697367699</v>
+        <v>596.2321936408013</v>
       </c>
       <c r="C17" t="n">
-        <v>450.4933697367699</v>
+        <v>596.2321936408013</v>
       </c>
       <c r="D17" t="n">
-        <v>450.4933697367699</v>
+        <v>596.2321936408013</v>
       </c>
       <c r="E17" t="n">
-        <v>450.4933697367699</v>
+        <v>596.2321936408013</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>175.2017815944888</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L17" t="n">
-        <v>295.9505570973564</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M17" t="n">
-        <v>812.7934917636815</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N17" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O17" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V17" t="n">
-        <v>2046.054921149048</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W17" t="n">
-        <v>1662.294620284217</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X17" t="n">
-        <v>1261.651222453169</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y17" t="n">
-        <v>860.7145494012593</v>
+        <v>596.2321936408013</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960203</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L18" t="n">
-        <v>537.7254774811263</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5627,19 +5627,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>639.6001036836846</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C19" t="n">
-        <v>639.6001036836846</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D19" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5703,22 +5703,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>735.4104252449724</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>639.6001036836846</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>639.6001036836846</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.9200883626444</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="C20" t="n">
-        <v>462.7954976759145</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="D20" t="n">
-        <v>462.7954976759145</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="E20" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O20" t="n">
         <v>2047.697635790537</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2084.721338910091</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2084.721338910091</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2084.721338910091</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>2084.721338910091</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W20" t="n">
-        <v>2084.721338910091</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X20" t="n">
-        <v>1684.077941079044</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="Y20" t="n">
-        <v>1283.141268027134</v>
+        <v>980.2857697264951</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811263</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O21" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>559.1786122610442</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>280.1089477699186</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>767.6328345264138</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C23" t="n">
-        <v>536.8451324196967</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D23" t="n">
-        <v>536.8451324196967</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E23" t="n">
-        <v>536.8451324196967</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F23" t="n">
-        <v>536.8451324196967</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N23" t="n">
-        <v>1075.450954962252</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O23" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P23" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>1952.973206274203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W23" t="n">
-        <v>1569.212905409371</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X23" t="n">
-        <v>1168.569507578324</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y23" t="n">
-        <v>767.6328345264138</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>537.7254774811263</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6174,25 +6174,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.342524902554</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U25" t="n">
-        <v>1246.342524902554</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.342524902554</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.342524902554</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X25" t="n">
-        <v>1246.342524902554</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y25" t="n">
-        <v>1246.342524902554</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>456.1053011127053</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="C26" t="n">
-        <v>456.1053011127053</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="D26" t="n">
-        <v>456.1053011127053</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960203</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959272</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O26" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2051.666852524984</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>2051.666852524984</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V26" t="n">
-        <v>2051.666852524984</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W26" t="n">
-        <v>1667.906551660152</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X26" t="n">
-        <v>1267.263153829105</v>
+        <v>980.2857697264951</v>
       </c>
       <c r="Y26" t="n">
-        <v>866.3264807771948</v>
+        <v>959.3684400233308</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>41.76508562960203</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M27" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N27" t="n">
-        <v>704.723947463468</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O27" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>865.1454348405214</v>
+        <v>783.2629641510017</v>
       </c>
       <c r="C28" t="n">
-        <v>694.0520624022379</v>
+        <v>612.1695917127182</v>
       </c>
       <c r="D28" t="n">
-        <v>534.5574177251478</v>
+        <v>452.6749470356282</v>
       </c>
       <c r="E28" t="n">
-        <v>373.6466025934674</v>
+        <v>291.7641319039477</v>
       </c>
       <c r="F28" t="n">
-        <v>209.0154767040586</v>
+        <v>127.133006014539</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6408,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W28" t="n">
-        <v>1515.924701986118</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.580839845801</v>
+        <v>1007.998662762237</v>
       </c>
       <c r="Y28" t="n">
-        <v>1052.845141234566</v>
+        <v>783.2629641510017</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2088.254281480102</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.129690793372</v>
+        <v>653.3604601293526</v>
       </c>
       <c r="D29" t="n">
-        <v>1273.665760886433</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E29" t="n">
-        <v>859.3255454033292</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F29" t="n">
-        <v>438.2951333570168</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>537.7254774811263</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M29" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6548,22 +6548,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="M30" t="n">
         <v>1207.227134123859</v>
       </c>
-      <c r="M30" t="n">
-        <v>1541.851827451147</v>
-      </c>
       <c r="N30" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O30" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6645,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>777.1526093285881</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>777.1526093285881</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>777.1526093285881</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>856.3536062232714</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="C32" t="n">
-        <v>446.2290155365415</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="D32" t="n">
-        <v>41.76508562960203</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960203</v>
+        <v>1101.870027280338</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960203</v>
+        <v>680.839615234026</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>692.8507596625946</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>1209.69369432892</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>1209.69369432892</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
         <v>1209.69369432892</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1924.571950680161</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>1667.511458939671</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V32" t="n">
-        <v>1667.511458939671</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W32" t="n">
-        <v>1667.511458939671</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="X32" t="n">
-        <v>1667.511458939671</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="Y32" t="n">
-        <v>1266.574785887761</v>
+        <v>1516.210242763442</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>704.723947463468</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N33" t="n">
-        <v>704.723947463468</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.098935930739</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198192</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6888,22 +6888,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.798642324783</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>352.673583001884</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C35" t="n">
-        <v>352.673583001884</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="D35" t="n">
-        <v>352.673583001884</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="E35" t="n">
-        <v>352.673583001884</v>
+        <v>906.2053270734691</v>
       </c>
       <c r="F35" t="n">
-        <v>352.673583001884</v>
+        <v>485.1749150271567</v>
       </c>
       <c r="G35" t="n">
-        <v>352.673583001884</v>
+        <v>76.44663091998882</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>76.44663091998882</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6967,22 +6967,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V35" t="n">
-        <v>1123.868675817052</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W35" t="n">
-        <v>740.1083749522209</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X35" t="n">
-        <v>352.673583001884</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y35" t="n">
-        <v>352.673583001884</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
@@ -7022,19 +7022,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M36" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N36" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.76508562960203</v>
+        <v>822.9044021853606</v>
       </c>
       <c r="C37" t="n">
-        <v>41.76508562960203</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D37" t="n">
-        <v>41.76508562960203</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960203</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960203</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960203</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7122,25 +7122,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T37" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U37" t="n">
-        <v>1048.817095773278</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V37" t="n">
-        <v>774.9313507128002</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W37" t="n">
-        <v>495.8616862216745</v>
+        <v>822.9044021853606</v>
       </c>
       <c r="X37" t="n">
-        <v>257.5178240813579</v>
+        <v>822.9044021853606</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.76508562960203</v>
+        <v>822.9044021853606</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>446.2290155365415</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C38" t="n">
-        <v>446.2290155365415</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M38" t="n">
-        <v>812.7934917636815</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N38" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W38" t="n">
-        <v>1247.809086419499</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X38" t="n">
-        <v>847.1656885884514</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y38" t="n">
-        <v>446.2290155365415</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K39" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L39" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M39" t="n">
-        <v>1221.566882129793</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.566882129793</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O39" t="n">
-        <v>1738.409816796118</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796118</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C40" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W40" t="n">
-        <v>495.8616862216745</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X40" t="n">
-        <v>257.5178240813579</v>
+        <v>433.7511753152939</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1270.693821706375</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C41" t="n">
-        <v>860.5692310196448</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D41" t="n">
-        <v>456.1053011127053</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N41" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.49398061527</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.49398061527</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="Y41" t="n">
-        <v>1680.915001370864</v>
+        <v>877.1357131590178</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>558.6080202959272</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.8616862216745</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>495.8616862216745</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>336.3670415445845</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>175.456226412904</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7596,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U43" t="n">
-        <v>1048.817095773278</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V43" t="n">
-        <v>774.9313507128002</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W43" t="n">
-        <v>495.8616862216745</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="X43" t="n">
-        <v>495.8616862216745</v>
+        <v>310.6747949845659</v>
       </c>
       <c r="Y43" t="n">
-        <v>495.8616862216745</v>
+        <v>85.93909637333064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1274.395973214227</v>
+        <v>672.1261595976147</v>
       </c>
       <c r="C44" t="n">
-        <v>1274.395973214227</v>
+        <v>672.1261595976147</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.395973214227</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E44" t="n">
-        <v>860.0557577311233</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H44" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L44" t="n">
-        <v>812.7934917636815</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M44" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N44" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
@@ -7678,22 +7678,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1274.395973214227</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W44" t="n">
-        <v>1274.395973214227</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X44" t="n">
-        <v>1274.395973214227</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y44" t="n">
-        <v>1274.395973214227</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
         <v>240.2510026593071</v>
@@ -7721,10 +7721,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,22 +7733,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7772,7 +7772,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="C46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="D46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="E46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="F46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="G46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="H46" t="n">
-        <v>558.8553848592514</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T46" t="n">
-        <v>1848.705542456804</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U46" t="n">
-        <v>1565.907395002928</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V46" t="n">
-        <v>1292.02164994245</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.951985451324</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X46" t="n">
-        <v>774.6081233110078</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.8553848592514</v>
+        <v>172.2451057567575</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7987,22 +7987,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>269.8552598673811</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>68.45311154908636</v>
+        <v>558.7215717793176</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>269.477326166955</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283841</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>73.48479305079316</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>333.3534809699544</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>296.5410069764446</v>
       </c>
       <c r="N11" t="n">
-        <v>593.8823835359368</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L12" t="n">
-        <v>235.501479574422</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>231.0841246958421</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>72.23607294538775</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>392.2643757374379</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>337.8664545776215</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L18" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>362.3241544056885</v>
+        <v>235.5014795744219</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>269.7548110361188</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>557.0846165901664</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432425</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
@@ -9889,16 +9889,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>200.7852390175286</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>333.3534809699544</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,25 +10196,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>395.5690244730511</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>422.1224761037308</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>490.0456851936598</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8093398682833</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10588,25 +10588,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10670,10 +10670,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>562.8045877599694</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10682,7 +10682,7 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10825,28 +10825,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>296.9001458002832</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>97.25235142021847</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11062,28 +11062,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1995199774881</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>362.3241544056883</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>525.3716274158282</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>494.5586588013268</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>280.4830567390447</v>
+        <v>177.412652034907</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22615,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.8095947046308</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.7999067317757</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.23545650401054</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22843,16 +22843,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.3921166022136</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22944,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,16 +22992,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>49.64572874164944</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>64.91956777062344</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -23010,7 +23010,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.1516625013675</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.17972248655101</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>194.7158398879886</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>7.536423381207214</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.55422061770423</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>227.4149180654652</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23548,22 +23548,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>61.50858912184873</v>
       </c>
       <c r="X14" t="n">
-        <v>390.2983828659825</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>6.694084528254564</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>358.0269173169558</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>304.561812389141</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>113.6869258769814</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>141.1082051732384</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>302.5224452642935</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.4306513095296</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>55.35263051300481</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>177.5435196942126</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24220,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>13.36686229055692</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.73155624800719</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>277.8409721381279</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24463,7 +24463,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>183.762864547043</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>376.2191499152581</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>81.06364598262446</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24663,7 +24663,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>221.5920803845235</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>297.2482228350639</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>12.07625401595556</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24846,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>165.2448744123731</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>191.8671761745083</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>100.0940567390716</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,19 +25162,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>51.15351521861466</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>13.07651982190356</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25314,25 +25314,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>139.5347012442121</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.893130557884632</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>221.5375004993686</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>22.35626078188102</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>21.73775722988617</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25681,22 +25681,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.728800370888337</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>373.5841168694287</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>142.0904386938126</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>30.63058525504567</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25836,10 +25836,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>278.6701803614844</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>149.0220244232027</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>134.1187461534311</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.89313055788412</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567914</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561695.8272567912</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561695.8272567912</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561695.8272567912</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561695.8272567914</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561695.8272567911</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561695.8272567912</v>
+        <v>561695.8272567913</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561695.8272567913</v>
+        <v>561695.8272567912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="C2" t="n">
         <v>133181.3099302736</v>
       </c>
       <c r="D2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="E2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="F2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="G2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="H2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="I2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="J2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="K2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="L2" t="n">
         <v>133181.3099302736</v>
@@ -26352,10 +26352,10 @@
         <v>133181.3099302736</v>
       </c>
       <c r="O2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="P2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="D4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="E4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="F4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="H4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="I4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="J4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="K4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="L4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="M4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="N4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="O4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="P4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136547.7575094784</v>
+        <v>-137225.2863688724</v>
       </c>
       <c r="C6" t="n">
-        <v>38407.75238363567</v>
+        <v>37730.22352424162</v>
       </c>
       <c r="D6" t="n">
-        <v>38407.75238363564</v>
+        <v>37730.22352424165</v>
       </c>
       <c r="E6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424164</v>
       </c>
       <c r="F6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424164</v>
       </c>
       <c r="G6" t="n">
-        <v>72035.35238363565</v>
+        <v>71357.82352424164</v>
       </c>
       <c r="H6" t="n">
-        <v>72035.35238363565</v>
+        <v>71357.82352424164</v>
       </c>
       <c r="I6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424164</v>
       </c>
       <c r="J6" t="n">
-        <v>-64559.4484222593</v>
+        <v>-65236.97728165331</v>
       </c>
       <c r="K6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424167</v>
       </c>
       <c r="L6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424161</v>
       </c>
       <c r="M6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424161</v>
       </c>
       <c r="N6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424161</v>
       </c>
       <c r="O6" t="n">
-        <v>72035.35238363565</v>
+        <v>71357.82352424164</v>
       </c>
       <c r="P6" t="n">
-        <v>72035.35238363568</v>
+        <v>71357.82352424164</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>10.70163254908636</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.48459394538775</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>244.2170912967373</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="N11" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L12" t="n">
-        <v>179.386955763573</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>135.5987266329973</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>244.2170912967374</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L18" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>306.2096305948394</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>500.9700927793174</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,16 +36609,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>244.2170912967373</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>400.9092955204426</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>209.2450561298659</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37390,10 +37390,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>506.6900639491204</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37545,28 +37545,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>306.2096305948393</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
